--- a/IsotopeAbundances.xlsx
+++ b/IsotopeAbundances.xlsx
@@ -276,6 +276,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -366,7 +367,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="T42" activeCellId="0" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -940,7 +941,7 @@
         <v>99.6</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="U41" s="0" t="n">
         <v>96.9</v>
@@ -950,13 +951,13 @@
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
+      <c r="T42" s="0" t="n">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
-      </c>
-      <c r="T43" s="0" t="n">
-        <v>6.73</v>
       </c>
       <c r="U43" s="0" t="n">
         <v>0.647</v>
